--- a/errorsDF.xlsx
+++ b/errorsDF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B398"/>
+  <dimension ref="A1:B361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,47 +502,47 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>249</v>
+        <v>366</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>371</v>
+        <v>452</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -552,7 +552,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>396</v>
+        <v>526</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -562,17 +562,17 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>411</v>
+        <v>589</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>452</v>
+        <v>639</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -582,17 +582,17 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>526</v>
+        <v>697</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>589</v>
+        <v>747</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>639</v>
+        <v>753</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -612,57 +612,57 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>659</v>
+        <v>824</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>660</v>
+        <v>839</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>661</v>
+        <v>846</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>685</v>
+        <v>917</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>697</v>
+        <v>933</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>747</v>
+        <v>962</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>753</v>
+        <v>964</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -682,27 +682,27 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>758</v>
+        <v>1045</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>807</v>
+        <v>1058</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>824</v>
+        <v>1062</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>839</v>
+        <v>1085</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -722,17 +722,17 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>846</v>
+        <v>1090</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>895</v>
+        <v>1142</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>917</v>
+        <v>1181</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>933</v>
+        <v>1187</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>962</v>
+        <v>1192</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>964</v>
+        <v>1227</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>1009</v>
+        <v>1283</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -792,17 +792,17 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>1010</v>
+        <v>1338</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>1045</v>
+        <v>1341</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>1058</v>
+        <v>1352</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>1062</v>
+        <v>1362</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>1085</v>
+        <v>1363</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -842,27 +842,27 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>1090</v>
+        <v>1377</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>1142</v>
+        <v>1387</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>1181</v>
+        <v>1391</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>1187</v>
+        <v>1412</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>1192</v>
+        <v>1437</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -892,17 +892,17 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>1227</v>
+        <v>1551</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>1243</v>
+        <v>1571</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -912,37 +912,37 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>1283</v>
+        <v>1602</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>1301</v>
+        <v>1603</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>1302</v>
+        <v>1640</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>1338</v>
+        <v>1658</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>1341</v>
+        <v>1676</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>1352</v>
+        <v>1677</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>1362</v>
+        <v>1682</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>1363</v>
+        <v>1683</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -992,17 +992,17 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>1377</v>
+        <v>1837</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>1387</v>
+        <v>1889</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>1391</v>
+        <v>1890</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>1412</v>
+        <v>1899</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>1437</v>
+        <v>1904</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1042,27 +1042,27 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>1551</v>
+        <v>1905</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>1571</v>
+        <v>1906</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>1587</v>
+        <v>1914</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>1602</v>
+        <v>1918</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1082,17 +1082,17 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>1603</v>
+        <v>1947</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>1640</v>
+        <v>1964</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>1658</v>
+        <v>1966</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>1676</v>
+        <v>2020</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>1677</v>
+        <v>2033</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1132,17 +1132,17 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>1682</v>
+        <v>2061</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>1683</v>
+        <v>2366</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1152,17 +1152,17 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>1837</v>
+        <v>2383</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>1889</v>
+        <v>2387</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>1890</v>
+        <v>2400</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>1899</v>
+        <v>2405</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>1904</v>
+        <v>2411</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>1905</v>
+        <v>2412</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>1906</v>
+        <v>2442</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>1914</v>
+        <v>2451</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>1918</v>
+        <v>2454</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1242,27 +1242,27 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>1947</v>
+        <v>2465</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>1957</v>
+        <v>2468</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>1964</v>
+        <v>2502</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1272,17 +1272,17 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>1966</v>
+        <v>2529</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>2020</v>
+        <v>2532</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>2033</v>
+        <v>2575</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1302,27 +1302,27 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>2061</v>
+        <v>2586</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>2355</v>
+        <v>2588</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>2366</v>
+        <v>2589</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>2383</v>
+        <v>2597</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1342,17 +1342,17 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>2387</v>
+        <v>2634</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>2400</v>
+        <v>3031</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1362,27 +1362,27 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>2405</v>
+        <v>3032</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>2411</v>
+        <v>3047</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>2412</v>
+        <v>3055</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>2442</v>
+        <v>3056</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>2451</v>
+        <v>3058</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>2454</v>
+        <v>3060</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>2465</v>
+        <v>3071</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>2468</v>
+        <v>3075</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>2502</v>
+        <v>3076</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -1452,17 +1452,17 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>2529</v>
+        <v>3081</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>2532</v>
+        <v>3099</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>2575</v>
+        <v>3102</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>2586</v>
+        <v>3103</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>2588</v>
+        <v>3129</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>2589</v>
+        <v>3137</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>2597</v>
+        <v>3142</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -1522,17 +1522,17 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>2634</v>
+        <v>3154</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>3031</v>
+        <v>3231</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -1542,27 +1542,27 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>3032</v>
+        <v>3234</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>3047</v>
+        <v>3235</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>3055</v>
+        <v>3236</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -1572,17 +1572,17 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>3056</v>
+        <v>3238</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>3058</v>
+        <v>3246</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>3060</v>
+        <v>3319</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>3071</v>
+        <v>3320</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>3075</v>
+        <v>3370</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>3076</v>
+        <v>3374</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>3081</v>
+        <v>3407</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>3099</v>
+        <v>3408</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>3102</v>
+        <v>3409</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>3103</v>
+        <v>3413</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>3129</v>
+        <v>3414</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>3137</v>
+        <v>3468</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>3142</v>
+        <v>3471</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>3154</v>
+        <v>3482</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>3231</v>
+        <v>3484</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -1722,37 +1722,37 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>3234</v>
+        <v>3517</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>3235</v>
+        <v>3570</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>3236</v>
+        <v>3625</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>3238</v>
+        <v>3728</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -1762,27 +1762,27 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>3246</v>
+        <v>4161</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>3301</v>
+        <v>4443</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>3319</v>
+        <v>4445</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -1792,17 +1792,17 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>3320</v>
+        <v>4451</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>3370</v>
+        <v>4488</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>3374</v>
+        <v>4495</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>3407</v>
+        <v>4531</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>3408</v>
+        <v>4535</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>3409</v>
+        <v>4541</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>3413</v>
+        <v>4542</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>3414</v>
+        <v>4550</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>3468</v>
+        <v>4554</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>3471</v>
+        <v>4569</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>3482</v>
+        <v>4575</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>3484</v>
+        <v>4584</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -1912,57 +1912,57 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>3517</v>
+        <v>4590</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>3570</v>
+        <v>4591</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>3625</v>
+        <v>4597</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>3728</v>
+        <v>4602</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>3791</v>
+        <v>4620</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4086</v>
+        <v>4645</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -1972,47 +1972,47 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4087</v>
+        <v>4664</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4088</v>
+        <v>4690</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4161</v>
+        <v>4697</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4443</v>
+        <v>4701</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4445</v>
+        <v>4763</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2022,17 +2022,17 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4451</v>
+        <v>4767</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4488</v>
+        <v>4769</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4495</v>
+        <v>4782</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4531</v>
+        <v>4783</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4535</v>
+        <v>4784</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4541</v>
+        <v>4790</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4542</v>
+        <v>4791</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4550</v>
+        <v>4795</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4554</v>
+        <v>4796</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -2112,27 +2112,27 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4569</v>
+        <v>4911</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>index 0 is out of bounds for axis 0 with size 0</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4575</v>
+        <v>4987</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4584</v>
+        <v>5002</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4590</v>
+        <v>5003</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4591</v>
+        <v>5009</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4597</v>
+        <v>5010</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4602</v>
+        <v>5013</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4620</v>
+        <v>5015</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -2192,17 +2192,17 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4645</v>
+        <v>5020</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4664</v>
+        <v>5024</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4690</v>
+        <v>5032</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4697</v>
+        <v>5033</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -2232,17 +2232,17 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4701</v>
+        <v>5038</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4763</v>
+        <v>5054</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4767</v>
+        <v>5057</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4769</v>
+        <v>5158</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4782</v>
+        <v>5162</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -2282,17 +2282,17 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4783</v>
+        <v>5163</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4784</v>
+        <v>5171</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4790</v>
+        <v>5176</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4791</v>
+        <v>5206</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4795</v>
+        <v>5210</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4796</v>
+        <v>5221</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -2342,37 +2342,37 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4911</v>
+        <v>5224</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>index 0 is out of bounds for axis 0 with size 0</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4916</v>
+        <v>5303</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>'NoneType' object has no attribute 'upper'</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4917</v>
+        <v>5332</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>'NoneType' object has no attribute 'upper'</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4987</v>
+        <v>5337</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5002</v>
+        <v>5338</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5003</v>
+        <v>5341</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5009</v>
+        <v>5343</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5010</v>
+        <v>5357</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5013</v>
+        <v>5361</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5015</v>
+        <v>5364</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5020</v>
+        <v>5372</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5024</v>
+        <v>5469</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5032</v>
+        <v>5499</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5033</v>
+        <v>5514</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5038</v>
+        <v>5554</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5054</v>
+        <v>5558</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -2502,17 +2502,17 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5057</v>
+        <v>5566</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5158</v>
+        <v>5583</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5162</v>
+        <v>5585</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -2532,17 +2532,17 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5163</v>
+        <v>5588</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5171</v>
+        <v>5589</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5176</v>
+        <v>5590</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5206</v>
+        <v>5591</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5210</v>
+        <v>5592</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5221</v>
+        <v>5598</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -2592,37 +2592,37 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5224</v>
+        <v>5652</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5303</v>
+        <v>5668</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5332</v>
+        <v>5710</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5337</v>
+        <v>5728</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -2632,117 +2632,117 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5338</v>
+        <v>5965</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>5341</v>
+        <v>6071</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>5343</v>
+        <v>6172</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>5357</v>
+        <v>6376</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>5361</v>
+        <v>6597</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>5364</v>
+        <v>6844</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>5372</v>
+        <v>6937</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>5469</v>
+        <v>7231</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>5499</v>
+        <v>8784</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>5514</v>
+        <v>8910</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>5554</v>
+        <v>9096</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>5558</v>
+        <v>9115</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -2752,17 +2752,17 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>5566</v>
+        <v>9167</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>5583</v>
+        <v>9168</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>5585</v>
+        <v>9204</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>5588</v>
+        <v>9210</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>5589</v>
+        <v>9236</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>5590</v>
+        <v>9240</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>5591</v>
+        <v>9261</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>5592</v>
+        <v>9282</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>5598</v>
+        <v>9297</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -2842,247 +2842,247 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>5652</v>
+        <v>9307</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>5668</v>
+        <v>9308</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>5710</v>
+        <v>9312</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>5728</v>
+        <v>9340</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>5965</v>
+        <v>9356</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>6071</v>
+        <v>9366</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>6172</v>
+        <v>9373</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>6238</v>
+        <v>9380</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>6376</v>
+        <v>9383</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>6597</v>
+        <v>9401</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>6736</v>
+        <v>9402</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>6844</v>
+        <v>9405</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>6937</v>
+        <v>9408</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>7231</v>
+        <v>9416</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>7414</v>
+        <v>9417</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>7617</v>
+        <v>9420</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>7847</v>
+        <v>9425</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>8041</v>
+        <v>9426</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>8042</v>
+        <v>9427</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>8043</v>
+        <v>9434</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>8784</v>
+        <v>9437</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>8910</v>
+        <v>9454</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>9096</v>
+        <v>9481</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>9115</v>
+        <v>9535</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>9167</v>
+        <v>9575</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>9168</v>
+        <v>9588</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -3102,17 +3102,17 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>9204</v>
+        <v>9595</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>9210</v>
+        <v>9621</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>9236</v>
+        <v>9632</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>9240</v>
+        <v>9635</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>9261</v>
+        <v>9637</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>9282</v>
+        <v>9642</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>9297</v>
+        <v>9649</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -3172,17 +3172,17 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>9307</v>
+        <v>9675</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>9308</v>
+        <v>9677</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>9312</v>
+        <v>9704</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>9340</v>
+        <v>9711</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>9342</v>
+        <v>9712</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>9356</v>
+        <v>9716</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>9366</v>
+        <v>9729</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>9373</v>
+        <v>9736</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>9380</v>
+        <v>9739</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>9383</v>
+        <v>9753</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>9401</v>
+        <v>9756</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>9402</v>
+        <v>9759</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>9405</v>
+        <v>9762</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>9408</v>
+        <v>9766</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>9416</v>
+        <v>9771</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -3322,17 +3322,17 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>9417</v>
+        <v>9793</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>9420</v>
+        <v>9798</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -3342,17 +3342,17 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>9422</v>
+        <v>9829</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>9425</v>
+        <v>9837</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>9426</v>
+        <v>9840</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>9427</v>
+        <v>9844</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>9434</v>
+        <v>9852</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>9437</v>
+        <v>9854</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>9454</v>
+        <v>9859</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>9481</v>
+        <v>9887</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>9535</v>
+        <v>9967</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>9575</v>
+        <v>10000</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>9588</v>
+        <v>10032</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>9595</v>
+        <v>10085</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>9621</v>
+        <v>10097</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>9632</v>
+        <v>10109</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>9635</v>
+        <v>10110</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>9637</v>
+        <v>10117</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>9642</v>
+        <v>10120</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -3512,17 +3512,17 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>9649</v>
+        <v>10158</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>9675</v>
+        <v>10165</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>9677</v>
+        <v>10203</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>9704</v>
+        <v>10237</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>9711</v>
+        <v>10238</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>9712</v>
+        <v>10241</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>9716</v>
+        <v>10244</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>9729</v>
+        <v>10276</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>9736</v>
+        <v>10303</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>9739</v>
+        <v>10314</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>9753</v>
+        <v>10329</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>9756</v>
+        <v>10334</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>9759</v>
+        <v>10346</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>9762</v>
+        <v>10350</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>9766</v>
+        <v>10367</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>9771</v>
+        <v>10382</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -3672,17 +3672,17 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>9793</v>
+        <v>10390</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>9798</v>
+        <v>10391</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>9829</v>
+        <v>10411</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>9837</v>
+        <v>10413</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>9840</v>
+        <v>10417</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>9844</v>
+        <v>10419</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>9852</v>
+        <v>10421</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>9854</v>
+        <v>10423</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>9859</v>
+        <v>10428</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>9887</v>
+        <v>10432</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -3772,17 +3772,17 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>9967</v>
+        <v>10434</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>10000</v>
+        <v>10438</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>10032</v>
+        <v>10442</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -3802,17 +3802,17 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>10085</v>
+        <v>10448</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>10097</v>
+        <v>10457</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>10109</v>
+        <v>10459</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>10110</v>
+        <v>10461</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>10117</v>
+        <v>10473</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>10120</v>
+        <v>10477</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -3862,27 +3862,27 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>10158</v>
+        <v>10479</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>10165</v>
+        <v>10487</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>10203</v>
+        <v>10488</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>10237</v>
+        <v>10506</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>10238</v>
+        <v>10520</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>10241</v>
+        <v>10524</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>10244</v>
+        <v>10528</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>10276</v>
+        <v>10530</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>10303</v>
+        <v>10533</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>10314</v>
+        <v>10534</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>10329</v>
+        <v>10541</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>10334</v>
+        <v>10543</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>10346</v>
+        <v>10548</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -3992,419 +3992,49 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>10350</v>
+        <v>10828</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>10367</v>
+        <v>10851</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>10382</v>
+        <v>10923</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>10390</v>
+        <v>10972</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>index 0 is out of bounds for axis 0 with size 0</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>10391</v>
+        <v>10976</v>
       </c>
       <c r="B361" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>10404</v>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>10411</v>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>10413</v>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>10417</v>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>10419</v>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>10421</v>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>10423</v>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>10428</v>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>10432</v>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>10434</v>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>10438</v>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>10442</v>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>10448</v>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>10457</v>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>10459</v>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>10461</v>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>10473</v>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>10477</v>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>10479</v>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>10487</v>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>10488</v>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>10492</v>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>10506</v>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>10520</v>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>10524</v>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>10528</v>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>10530</v>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>10533</v>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>10534</v>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>10541</v>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>10543</v>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>10548</v>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>10828</v>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>list index out of range</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>10851</v>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>list index out of range</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>10923</v>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>list index out of range</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>10972</v>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>index 0 is out of bounds for axis 0 with size 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>10976</v>
-      </c>
-      <c r="B398" t="inlineStr">
         <is>
           <t>index 0 is out of bounds for axis 0 with size 0</t>
         </is>

--- a/errorsDF.xlsx
+++ b/errorsDF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B361"/>
+  <dimension ref="A1:B359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>3482</v>
+        <v>3484</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -1712,17 +1712,17 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>3484</v>
+        <v>3517</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>3517</v>
+        <v>3570</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>3570</v>
+        <v>3625</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>3625</v>
+        <v>3728</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>3728</v>
+        <v>4161</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -1762,17 +1762,17 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4161</v>
+        <v>4443</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4443</v>
+        <v>4445</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -1782,27 +1782,27 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4445</v>
+        <v>4451</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4451</v>
+        <v>4488</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4488</v>
+        <v>4495</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4495</v>
+        <v>4531</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4531</v>
+        <v>4535</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4535</v>
+        <v>4541</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4541</v>
+        <v>4542</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4542</v>
+        <v>4550</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4550</v>
+        <v>4554</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4554</v>
+        <v>4569</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4569</v>
+        <v>4575</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4575</v>
+        <v>4584</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4584</v>
+        <v>4590</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4590</v>
+        <v>4591</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4591</v>
+        <v>4597</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4597</v>
+        <v>4602</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4602</v>
+        <v>4620</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -1952,27 +1952,27 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4620</v>
+        <v>4645</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4645</v>
+        <v>4664</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4664</v>
+        <v>4690</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4690</v>
+        <v>4697</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -1992,27 +1992,27 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4697</v>
+        <v>4701</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4701</v>
+        <v>4763</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4763</v>
+        <v>4767</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4767</v>
+        <v>4769</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4769</v>
+        <v>4782</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4782</v>
+        <v>4783</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4783</v>
+        <v>4784</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4784</v>
+        <v>4790</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4790</v>
+        <v>4791</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4791</v>
+        <v>4795</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4795</v>
+        <v>4796</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -2102,37 +2102,37 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4796</v>
+        <v>4911</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>index 0 is out of bounds for axis 0 with size 0</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4911</v>
+        <v>4987</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>index 0 is out of bounds for axis 0 with size 0</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4987</v>
+        <v>5002</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5002</v>
+        <v>5003</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5009</v>
+        <v>5010</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5010</v>
+        <v>5013</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5013</v>
+        <v>5015</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5015</v>
+        <v>5020</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5020</v>
+        <v>5024</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5024</v>
+        <v>5032</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5032</v>
+        <v>5033</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5033</v>
+        <v>5038</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5038</v>
+        <v>5054</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5054</v>
+        <v>5057</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5057</v>
+        <v>5158</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5158</v>
+        <v>5162</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -2272,27 +2272,27 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5162</v>
+        <v>5163</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5163</v>
+        <v>5171</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5171</v>
+        <v>5176</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5176</v>
+        <v>5206</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5206</v>
+        <v>5210</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5210</v>
+        <v>5221</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5221</v>
+        <v>5224</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5224</v>
+        <v>5303</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5303</v>
+        <v>5332</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -2362,27 +2362,27 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5332</v>
+        <v>5337</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5337</v>
+        <v>5338</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5338</v>
+        <v>5341</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5341</v>
+        <v>5343</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5343</v>
+        <v>5357</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5357</v>
+        <v>5361</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5361</v>
+        <v>5364</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5364</v>
+        <v>5372</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5372</v>
+        <v>5469</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5469</v>
+        <v>5499</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5499</v>
+        <v>5514</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5514</v>
+        <v>5554</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5554</v>
+        <v>5558</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -2492,27 +2492,27 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5558</v>
+        <v>5566</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5566</v>
+        <v>5585</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5583</v>
+        <v>5588</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5585</v>
+        <v>5589</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5588</v>
+        <v>5590</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5589</v>
+        <v>5591</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5590</v>
+        <v>5592</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5591</v>
+        <v>5598</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -2572,27 +2572,27 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5592</v>
+        <v>5652</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5598</v>
+        <v>5668</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5652</v>
+        <v>5710</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5668</v>
+        <v>5728</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5710</v>
+        <v>5965</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5728</v>
+        <v>6071</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5965</v>
+        <v>6172</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>6071</v>
+        <v>6376</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>6172</v>
+        <v>6597</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>6376</v>
+        <v>6844</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>6597</v>
+        <v>6937</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>6844</v>
+        <v>7231</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>6937</v>
+        <v>8784</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>7231</v>
+        <v>8910</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>8784</v>
+        <v>9096</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -2722,27 +2722,27 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>8910</v>
+        <v>9115</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>9096</v>
+        <v>9167</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>9115</v>
+        <v>9168</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>9167</v>
+        <v>9204</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>9168</v>
+        <v>9210</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>9204</v>
+        <v>9236</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>9210</v>
+        <v>9240</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>9236</v>
+        <v>9261</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>9240</v>
+        <v>9282</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>9261</v>
+        <v>9297</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>9282</v>
+        <v>9307</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>9297</v>
+        <v>9308</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>9307</v>
+        <v>9312</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>9308</v>
+        <v>9340</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>9312</v>
+        <v>9356</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>9340</v>
+        <v>9366</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>9356</v>
+        <v>9373</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>9366</v>
+        <v>9380</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>9373</v>
+        <v>9383</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>9380</v>
+        <v>9401</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>9383</v>
+        <v>9402</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>9401</v>
+        <v>9405</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>9402</v>
+        <v>9408</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>9405</v>
+        <v>9416</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>9408</v>
+        <v>9417</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>9416</v>
+        <v>9420</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>9417</v>
+        <v>9425</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>9420</v>
+        <v>9426</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>9425</v>
+        <v>9427</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>9426</v>
+        <v>9434</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>9427</v>
+        <v>9437</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>9434</v>
+        <v>9454</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>9437</v>
+        <v>9481</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -3052,17 +3052,17 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>9454</v>
+        <v>9535</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>9481</v>
+        <v>9575</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -3072,27 +3072,27 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>9535</v>
+        <v>9588</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>9575</v>
+        <v>9595</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>9588</v>
+        <v>9621</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -3102,17 +3102,17 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>9595</v>
+        <v>9632</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>9621</v>
+        <v>9635</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>9632</v>
+        <v>9637</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>9635</v>
+        <v>9642</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>9637</v>
+        <v>9649</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -3152,17 +3152,17 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>9642</v>
+        <v>9675</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>9649</v>
+        <v>9677</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -3172,17 +3172,17 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>9675</v>
+        <v>9704</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>9677</v>
+        <v>9711</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>9704</v>
+        <v>9712</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>9711</v>
+        <v>9716</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>9712</v>
+        <v>9729</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>9716</v>
+        <v>9736</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>9729</v>
+        <v>9739</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>9736</v>
+        <v>9753</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>9739</v>
+        <v>9756</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>9753</v>
+        <v>9759</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>9756</v>
+        <v>9762</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>9759</v>
+        <v>9766</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>9762</v>
+        <v>9771</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -3302,17 +3302,17 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>9766</v>
+        <v>9793</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>9771</v>
+        <v>9798</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -3322,17 +3322,17 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>9793</v>
+        <v>9829</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>9798</v>
+        <v>9837</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>9829</v>
+        <v>9840</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>9837</v>
+        <v>9844</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>9840</v>
+        <v>9852</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>9844</v>
+        <v>9854</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>9852</v>
+        <v>9859</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>9854</v>
+        <v>9887</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -3402,17 +3402,17 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>9859</v>
+        <v>9967</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>9887</v>
+        <v>10000</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -3422,27 +3422,27 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>9967</v>
+        <v>10032</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>10000</v>
+        <v>10085</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>10032</v>
+        <v>10097</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -3452,17 +3452,17 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>10085</v>
+        <v>10109</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>10097</v>
+        <v>10110</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>10109</v>
+        <v>10117</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>10110</v>
+        <v>10120</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -3492,47 +3492,47 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>10117</v>
+        <v>10158</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>10120</v>
+        <v>10165</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>10158</v>
+        <v>10203</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>10165</v>
+        <v>10237</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>10203</v>
+        <v>10238</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>10237</v>
+        <v>10241</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>10238</v>
+        <v>10244</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>10241</v>
+        <v>10276</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>10244</v>
+        <v>10303</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>10276</v>
+        <v>10314</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>10303</v>
+        <v>10329</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>10314</v>
+        <v>10334</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>10329</v>
+        <v>10346</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>10334</v>
+        <v>10350</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>10346</v>
+        <v>10367</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>10350</v>
+        <v>10382</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>10367</v>
+        <v>10390</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>10382</v>
+        <v>10391</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>10390</v>
+        <v>10411</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>10391</v>
+        <v>10413</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>10411</v>
+        <v>10417</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>10413</v>
+        <v>10419</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>10417</v>
+        <v>10421</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>10419</v>
+        <v>10423</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>10421</v>
+        <v>10428</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>10423</v>
+        <v>10432</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>10428</v>
+        <v>10434</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>10432</v>
+        <v>10438</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>10434</v>
+        <v>10442</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>10438</v>
+        <v>10448</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>10442</v>
+        <v>10457</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>10448</v>
+        <v>10459</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>10457</v>
+        <v>10461</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>10459</v>
+        <v>10473</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>10461</v>
+        <v>10477</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>10473</v>
+        <v>10479</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>10477</v>
+        <v>10487</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>10479</v>
+        <v>10488</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>10487</v>
+        <v>10506</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>10488</v>
+        <v>10520</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>10506</v>
+        <v>10524</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>10520</v>
+        <v>10528</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>10524</v>
+        <v>10530</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>10528</v>
+        <v>10533</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>10530</v>
+        <v>10534</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>10533</v>
+        <v>10541</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>10534</v>
+        <v>10543</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>10541</v>
+        <v>10548</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -3972,27 +3972,27 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>10543</v>
+        <v>10828</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>10548</v>
+        <v>10851</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>list index out of range</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>10828</v>
+        <v>10923</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -4002,39 +4002,19 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>10851</v>
+        <v>10972</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>index 0 is out of bounds for axis 0 with size 0</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>10923</v>
+        <v>10976</v>
       </c>
       <c r="B359" t="inlineStr">
-        <is>
-          <t>list index out of range</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>10972</v>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>index 0 is out of bounds for axis 0 with size 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>10976</v>
-      </c>
-      <c r="B361" t="inlineStr">
         <is>
           <t>index 0 is out of bounds for axis 0 with size 0</t>
         </is>
